--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_15-40.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_15-40.xlsx
@@ -143,7 +143,13 @@
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1405,13 +1411,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1431,17 +1437,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1449,7 +1455,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1457,17 +1463,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1475,7 +1481,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1483,17 +1489,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1501,7 +1507,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1509,17 +1515,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1527,7 +1533,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1535,17 +1541,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1553,7 +1559,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1561,13 +1567,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1579,7 +1585,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1587,17 +1593,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1619,7 +1625,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>68.599999999999994</v>
+        <v>150</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1639,51 +1645,103 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
+        <v>59</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
+        <v>12</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c t="s" r="N38" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c t="s" r="B39" s="7">
+        <v>60</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c t="s" r="H39" s="8">
+        <v>61</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9">
+        <v>70</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c t="s" r="N39" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="25.5" customHeight="1">
-      <c r="K38" s="10">
-        <v>1176.8199999999999</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" ht="17.25" customHeight="1">
-      <c t="s" r="A39" s="11">
-        <v>60</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c t="s" r="F39" s="12">
-        <v>61</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c t="s" r="I39" s="14">
+    <row r="40" ht="26.25" customHeight="1">
+      <c r="K40" s="10">
+        <v>1225.8199999999999</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="11">
         <v>62</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c t="s" r="F41" s="12">
+        <v>63</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c t="s" r="I41" s="14">
+        <v>64</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="119">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1793,10 +1851,16 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:N41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
